--- a/Apache Commons Collection/Code churn/code churn.xlsx
+++ b/Apache Commons Collection/Code churn/code churn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Code churn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB741C5F-0E9F-D544-A1B3-184B343E65A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110F71B2-649F-BC43-9DA9-1CD9BC943397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{63FFF5D8-DB16-9046-B4A9-933F626992D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Version</t>
   </si>
@@ -87,6 +87,45 @@
   </si>
   <si>
     <t>cumulative churn values</t>
+  </si>
+  <si>
+    <t>v3.0</t>
+  </si>
+  <si>
+    <t>v3.1</t>
+  </si>
+  <si>
+    <t>v3.2</t>
+  </si>
+  <si>
+    <t>v3.2.1</t>
+  </si>
+  <si>
+    <t>v3.2.2</t>
+  </si>
+  <si>
+    <t>v4.0-alpha1</t>
+  </si>
+  <si>
+    <t>v4.0</t>
+  </si>
+  <si>
+    <t>v4.1</t>
+  </si>
+  <si>
+    <t>v4.2</t>
+  </si>
+  <si>
+    <t>v4.3</t>
+  </si>
+  <si>
+    <t>v4.4</t>
+  </si>
+  <si>
+    <t>v4.5</t>
+  </si>
+  <si>
+    <t>Versions</t>
   </si>
 </sst>
 </file>
@@ -438,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16632269-42FE-FC47-8ED3-5E51048CA9AE}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,8 +537,8 @@
         <v>483</v>
       </c>
       <c r="G2">
-        <f>(E2+F2)/2</f>
-        <v>483</v>
+        <f>(483)/2</f>
+        <v>241.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -524,8 +563,8 @@
         <v>978</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G12" si="1">(E3+F3)/2</f>
-        <v>736.5</v>
+        <f>(E3+F2)/2</f>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -546,12 +585,12 @@
         <v>509</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F12" si="2">F3+E4</f>
+        <f t="shared" ref="F4:F12" si="1">F3+E4</f>
         <v>1487</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>998</v>
+        <f>(E4+F3)/2</f>
+        <v>743.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -572,12 +611,12 @@
         <v>53</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1540</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>796.5</v>
+        <f t="shared" ref="G4:G12" si="2">(E5+F4)/2</f>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -598,12 +637,12 @@
         <v>1000</v>
       </c>
       <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2540</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="2"/>
-        <v>2540</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>1770</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -624,12 +663,12 @@
         <v>306</v>
       </c>
       <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2846</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="2"/>
-        <v>2846</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>1576</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -650,12 +689,12 @@
         <v>301</v>
       </c>
       <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3147</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="2"/>
-        <v>3147</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>1724</v>
+        <v>1573.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -676,12 +715,12 @@
         <v>552</v>
       </c>
       <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3699</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="2"/>
-        <v>3699</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>2125.5</v>
+        <v>1849.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -702,12 +741,12 @@
         <v>24</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3723</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1873.5</v>
+        <f>(E10+F9)/2</f>
+        <v>1861.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -728,12 +767,12 @@
         <v>260</v>
       </c>
       <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3983</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="2"/>
-        <v>3983</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>2121.5</v>
+        <v>1991.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -754,12 +793,116 @@
         <v>430</v>
       </c>
       <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4413</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="2"/>
-        <v>4413</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>2421.5</v>
+        <v>2206.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>743.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1573.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>1849.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1861.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1991.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>2206.5</v>
       </c>
     </row>
   </sheetData>

--- a/Apache Commons Collection/Code churn/code churn.xlsx
+++ b/Apache Commons Collection/Code churn/code churn.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Code churn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110F71B2-649F-BC43-9DA9-1CD9BC943397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF0FCB-BF8D-5041-B453-4A0AD3FACCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{63FFF5D8-DB16-9046-B4A9-933F626992D1}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="27500" windowHeight="17540" xr2:uid="{63FFF5D8-DB16-9046-B4A9-933F626992D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +502,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,9 +580,9 @@
         <f t="shared" ref="E3:E12" si="0">B3+C3+D3</f>
         <v>495</v>
       </c>
-      <c r="F3">
-        <f>F2+E3</f>
-        <v>978</v>
+      <c r="F3" t="e" cm="1">
+        <f t="array" ref="F3">F2+F18E3</f>
+        <v>#NAME?</v>
       </c>
       <c r="G3">
         <f>(E3+F2)/2</f>
@@ -584,13 +606,13 @@
         <f t="shared" si="0"/>
         <v>509</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="e">
         <f t="shared" ref="F4:F12" si="1">F3+E4</f>
-        <v>1487</v>
-      </c>
-      <c r="G4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" t="e">
         <f>(E4+F3)/2</f>
-        <v>743.5</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -610,13 +632,13 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="e">
         <f t="shared" si="1"/>
-        <v>1540</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G4:G12" si="2">(E5+F4)/2</f>
-        <v>770</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" ref="G5:G12" si="2">(E5+F4)/2</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -636,13 +658,13 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="e">
         <f t="shared" si="1"/>
-        <v>2540</v>
-      </c>
-      <c r="G6">
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" t="e">
         <f t="shared" si="2"/>
-        <v>1270</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -662,13 +684,13 @@
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="e">
         <f t="shared" si="1"/>
-        <v>2846</v>
-      </c>
-      <c r="G7">
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
         <f t="shared" si="2"/>
-        <v>1423</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -688,13 +710,13 @@
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="e">
         <f t="shared" si="1"/>
-        <v>3147</v>
-      </c>
-      <c r="G8">
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" t="e">
         <f t="shared" si="2"/>
-        <v>1573.5</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -714,13 +736,13 @@
         <f t="shared" si="0"/>
         <v>552</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="e">
         <f t="shared" si="1"/>
-        <v>3699</v>
-      </c>
-      <c r="G9">
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" t="e">
         <f t="shared" si="2"/>
-        <v>1849.5</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -740,13 +762,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="e">
         <f t="shared" si="1"/>
-        <v>3723</v>
-      </c>
-      <c r="G10">
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" t="e">
         <f>(E10+F9)/2</f>
-        <v>1861.5</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -766,13 +788,13 @@
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="e">
         <f t="shared" si="1"/>
-        <v>3983</v>
-      </c>
-      <c r="G11">
+        <v>#NAME?</v>
+      </c>
+      <c r="G11" t="e">
         <f t="shared" si="2"/>
-        <v>1991.5</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -792,13 +814,13 @@
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="e">
         <f t="shared" si="1"/>
-        <v>4413</v>
-      </c>
-      <c r="G12">
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" t="e">
         <f t="shared" si="2"/>
-        <v>2206.5</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">

--- a/Apache Commons Collection/Code churn/code churn.xlsx
+++ b/Apache Commons Collection/Code churn/code churn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Code churn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF0FCB-BF8D-5041-B453-4A0AD3FACCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E7E57-3031-194A-BD31-D0083A82C2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="27500" windowHeight="17540" xr2:uid="{63FFF5D8-DB16-9046-B4A9-933F626992D1}"/>
+    <workbookView xWindow="3800" yWindow="1060" windowWidth="27500" windowHeight="17540" xr2:uid="{63FFF5D8-DB16-9046-B4A9-933F626992D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,28 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16632269-42FE-FC47-8ED3-5E51048CA9AE}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,9 +558,9 @@
         <f t="shared" ref="E3:E12" si="0">B3+C3+D3</f>
         <v>495</v>
       </c>
-      <c r="F3" t="e" cm="1">
-        <f t="array" ref="F3">F2+F18E3</f>
-        <v>#NAME?</v>
+      <c r="F3">
+        <f>F2+E3</f>
+        <v>978</v>
       </c>
       <c r="G3">
         <f>(E3+F2)/2</f>
@@ -606,13 +584,13 @@
         <f t="shared" si="0"/>
         <v>509</v>
       </c>
-      <c r="F4" t="e">
-        <f t="shared" ref="F4:F12" si="1">F3+E4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G4" t="e">
+      <c r="F4">
+        <f>F3+E4</f>
+        <v>1487</v>
+      </c>
+      <c r="G4">
         <f>(E4+F3)/2</f>
-        <v>#NAME?</v>
+        <v>743.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -632,13 +610,13 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F5" t="e">
-        <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" t="e">
+      <c r="F5">
+        <f t="shared" ref="F4:F12" si="1">F4+E5</f>
+        <v>1540</v>
+      </c>
+      <c r="G5">
         <f t="shared" ref="G5:G12" si="2">(E5+F4)/2</f>
-        <v>#NAME?</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -658,13 +636,13 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" t="e">
+        <v>2540</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="2"/>
-        <v>#NAME?</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -684,13 +662,13 @@
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" t="e">
+        <v>2846</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="2"/>
-        <v>#NAME?</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -710,13 +688,13 @@
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
-      <c r="F8" t="e">
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" t="e">
+        <v>3147</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="2"/>
-        <v>#NAME?</v>
+        <v>1573.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -736,13 +714,13 @@
         <f t="shared" si="0"/>
         <v>552</v>
       </c>
-      <c r="F9" t="e">
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G9" t="e">
+        <v>3699</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="2"/>
-        <v>#NAME?</v>
+        <v>1849.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -762,13 +740,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F10" t="e">
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G10" t="e">
+        <v>3723</v>
+      </c>
+      <c r="G10">
         <f>(E10+F9)/2</f>
-        <v>#NAME?</v>
+        <v>1861.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -788,13 +766,13 @@
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G11" t="e">
+        <v>3983</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="2"/>
-        <v>#NAME?</v>
+        <v>1991.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -814,13 +792,13 @@
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
-      <c r="F12" t="e">
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G12" t="e">
+        <v>4413</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="2"/>
-        <v>#NAME?</v>
+        <v>2206.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
